--- a/LITERATURE REVIEW/Literature Matrix UU 2022 (Feb update).xlsx
+++ b/LITERATURE REVIEW/Literature Matrix UU 2022 (Feb update).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agrippina Mwangi\Documents\GitHub\Renewable_Energy_Integration\LITERATURE REVIEW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1B4B9B-8FCD-4443-9222-0CB3A6E0C169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06087ED-E0F2-4FF2-BC24-2FAC29AE827F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{497C0ADB-D672-4D47-81E2-3B9010C22FDB}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8964" xr2:uid="{497C0ADB-D672-4D47-81E2-3B9010C22FDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Month 1" sheetId="1" r:id="rId1"/>
@@ -42,6 +42,8 @@
     <author>tc={00D66F1E-95F0-4AF9-8536-8511DC829F55}</author>
     <author>tc={67D84784-9BEB-438B-B46C-F82B40101D0E}</author>
     <author>tc={E17F176A-702B-47B9-8FD3-D2B8AFF9093B}</author>
+    <author>tc={DB9FC807-7BEC-48C9-9130-F6E2E3C7261B}</author>
+    <author>tc={50ADC00C-EE83-4127-9B3D-4B6779692EB1}</author>
   </authors>
   <commentList>
     <comment ref="C14" authorId="0" shapeId="0" xr:uid="{A36B3AE3-E0BF-465A-B8A7-3497E87534C9}">
@@ -125,12 +127,34 @@
 IED -&gt; logical device-&gt; logical node -&gt; data object -&gt; Data attribute(leaf)</t>
       </text>
     </comment>
+    <comment ref="E17" authorId="6" shapeId="0" xr:uid="{DB9FC807-7BEC-48C9-9130-F6E2E3C7261B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Edge computing is a service network
+Reply:
+    Edge computing provides resource-intensive network applications with powerful computing capabilities and low network service delays.
+Reply:
+    Deploy edge service equipment close to user requests. Edge service equipment and the data center constitute a two-iter task resource allocation structure to support application service requests.</t>
+      </text>
+    </comment>
+    <comment ref="F17" authorId="7" shapeId="0" xr:uid="{50ADC00C-EE83-4127-9B3D-4B6779692EB1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Edge services are distributed and deployed in different geographically diverse edge network areas, with lower latency than data centers. It can be seen as a cloudlet closer to the user area.
+Reply:
+    The intelligent monitoring equipment is only responsible for completing the task of data transmission, and the edge computing network</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="105">
   <si>
     <t>Title/Author</t>
   </si>
@@ -363,9 +387,6 @@
     <t xml:space="preserve">Performance issues such as latency problems can only be resolved with a complete public cloud restoration project. Some users fail to leverage cloud native features while others are unwilling to make applications cloud-native. Network latency is another bottleneck. The distance between the IoT edge network and the cloud center determines the amount of latency one is bound to experience.  Poor design - If teh system is not localized to leverage the performance features of the host cloud, you are not getting the best performance bang for your cloud buck. </t>
   </si>
   <si>
-    <t>Cloud based performance metrics</t>
-  </si>
-  <si>
     <t>While designing your system, consider the public cloud-hosted performance that deals with resource provisioning and deprovisioning, platform optimization etc.  This article sheds light on the poorly designed legacy applications which were operating quite alright in on-premise server single tenant platforms but are outed on cloud applications for being poorly designed.  The paper proposes that cloud engineers alter the approach at to when, how and the size fo the chunks of resources provisioned to support the system processing.</t>
   </si>
   <si>
@@ -475,12 +496,91 @@
   <si>
     <t>Cloud-based DERMS Test platform using real-time power system simulation</t>
   </si>
+  <si>
+    <t>Zhihan LV
+Liang Qiao
+Sahil Verma
+Kavita</t>
+  </si>
+  <si>
+    <t>AI-enabled IoT-edge Data Analytics for connected living</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The paper seeks to solve the problem of copy-free task deployment in the task deployment problem. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proposes a heterogeneous edge collaborative storage mechanism with tight coupling of computing and data which solves the contradiction between the limited computing and storage capabilities of data and intelligent terminals to improve the performance of data processing applications.
+The work proposes a feasible solution (FS) algorithm to solve the problme of placing copy-free data processing tasks in the system. </t>
+  </si>
+  <si>
+    <t>The end-to-end collaborative real-tme data processing task scheduling mechanism proposed can effectively avoid the disadvantages of long waiting times and the inability to obtain the required data, which significantly improves the success rate of the task and thus ensures the performance of real-time data processing. 
+IoT- edge intelligent data process for IoT operating companies, providing edge artificial intelligence computing platforms including edge AI data processing capabilities simply, quickly, and at low cost. 
+Many edge devices, currently, have built-in computing power. They have GPU, VPU, or a TPU to run high end AI-based models with a connection to the cloud. 
+AI edge processing in the IoT world will help provide intelligent real-time decision-making for businesses in a cost-effective and low-latency manner</t>
+  </si>
+  <si>
+    <t>AI Edge processing in the IoT world will provide intelligent real-time decision making for businesses in a cost-effective and low-latency manner.
+Optimal combination: IoT and real-time analysis</t>
+  </si>
+  <si>
+    <t>The paper brings out the challenges of remote deployment of models and the edge of performance monitoring. 
+Edge computing - computing and storage resources are scattered from the centralized cloud data center to the edge of the network. These are the edge servers. 
+Those closer to the user provide specific computing, storage, and communication capabilities. Users interact with the edge servers to obtain faster responses and higher service quality. 
+IoT Edge computing is suitable for application scenarios with special business requirements such as low latency, high bandwidth, high reliability, massive connections, heterogeneous aggregation, local security, and privacy protection. 
+- Personal Edge
+- Business Edge
+- Cloud Edge</t>
+  </si>
+  <si>
+    <t>Data processing</t>
+  </si>
+  <si>
+    <t>Data acquisition and transmission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data processing &amp; analysis </t>
+  </si>
+  <si>
+    <t>Data acquisition on edge layer</t>
+  </si>
+  <si>
+    <t>IoT architectural vulnerability</t>
+  </si>
+  <si>
+    <t>Data analytics and processing</t>
+  </si>
+  <si>
+    <t>Data transmission and IoT edge layer sensor networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data acquisition,transmission and processing </t>
+  </si>
+  <si>
+    <t>Moumita Pramanik
+Tuhin Kumar Barui
+Atanu Roy
+Hiranmay Samanta
+Nirmal Kumar Deb
+Hiranmay Saha</t>
+  </si>
+  <si>
+    <t>Data communication and remote monitoring using Raspberry Pi in a solar wind biogas integrated micro-grid system</t>
+  </si>
+  <si>
+    <t>The development of efficient and cost-effective real-time data acquisition and remote monitoring systems for micro-grid is essential to study the generated and consumed power quality measurement, stability, reliability, and maintenance optimization. 
+Incomplete data and inaccurate measurement of energy output can lead to false conclusions and lost revenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use Raspberry Pi along with Elite 440-443 Modbus based smart meters to acquire the data of several electrical parameters in a micro-grid system for real-time monitoring. 
+The Raspberry Pi reads the digital data from the smart meters through the mModbus TCP/IP communication protocol and displays the data on a screen
+Alternative DA systems are embedded systems based on Linux and data loggers. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,6 +600,12 @@
       <color theme="1"/>
       <name val="Century Gothic"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -534,7 +640,155 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -913,26 +1167,42 @@
     <text>IEC 61859 data model:
 IED -&gt; logical device-&gt; logical node -&gt; data object -&gt; Data attribute(leaf)</text>
   </threadedComment>
+  <threadedComment ref="E17" dT="2022-02-15T11:03:21.22" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{DB9FC807-7BEC-48C9-9130-F6E2E3C7261B}">
+    <text>Edge computing is a service network</text>
+  </threadedComment>
+  <threadedComment ref="E17" dT="2022-02-15T11:03:56.39" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{FD77718A-6D56-4725-A5E1-DA9D289A6986}" parentId="{DB9FC807-7BEC-48C9-9130-F6E2E3C7261B}">
+    <text>Edge computing provides resource-intensive network applications with powerful computing capabilities and low network service delays.</text>
+  </threadedComment>
+  <threadedComment ref="E17" dT="2022-02-15T11:04:48.68" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{9387F9AF-F976-4950-B97A-8C9E1E97B8FC}" parentId="{DB9FC807-7BEC-48C9-9130-F6E2E3C7261B}">
+    <text>Deploy edge service equipment close to user requests. Edge service equipment and the data center constitute a two-iter task resource allocation structure to support application service requests.</text>
+  </threadedComment>
+  <threadedComment ref="F17" dT="2022-02-15T11:06:56.29" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{50ADC00C-EE83-4127-9B3D-4B6779692EB1}">
+    <text>Edge services are distributed and deployed in different geographically diverse edge network areas, with lower latency than data centers. It can be seen as a cloudlet closer to the user area.</text>
+  </threadedComment>
+  <threadedComment ref="F17" dT="2022-02-15T11:08:54.71" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{E61E01FB-3979-4066-800E-6ACBD69B0FDB}" parentId="{50ADC00C-EE83-4127-9B3D-4B6779692EB1}">
+    <text>The intelligent monitoring equipment is only responsible for completing the task of data transmission, and the edge computing network</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C6CAC5-4A2C-4BDD-A220-11C3DA4654B6}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="22.44140625" style="1"/>
+    <col min="1" max="1" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" style="1"/>
     <col min="3" max="3" width="27.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="40.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.77734375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="22.44140625" style="1"/>
   </cols>
   <sheetData>
@@ -962,7 +1232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="211.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -981,8 +1251,11 @@
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="237.6" x14ac:dyDescent="0.3">
+      <c r="H2" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1001,8 +1274,11 @@
       <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="250.8" x14ac:dyDescent="0.3">
+      <c r="H3" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1024,8 +1300,11 @@
       <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="277.2" x14ac:dyDescent="0.3">
+      <c r="H4" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -1043,6 +1322,9 @@
       </c>
       <c r="F5" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="66" x14ac:dyDescent="0.3">
@@ -1052,8 +1334,11 @@
       <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="211.2" x14ac:dyDescent="0.3">
+      <c r="H6" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -1072,8 +1357,11 @@
       <c r="F7" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="224.4" x14ac:dyDescent="0.3">
+      <c r="H7" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -1089,8 +1377,11 @@
       <c r="E8" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="277.2" x14ac:dyDescent="0.3">
+      <c r="H8" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
@@ -1109,8 +1400,11 @@
       <c r="F9" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="290.39999999999998" x14ac:dyDescent="0.3">
+      <c r="H9" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="224.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -1126,8 +1420,11 @@
       <c r="E10" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="184.8" x14ac:dyDescent="0.3">
+      <c r="H10" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="132" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
@@ -1140,8 +1437,11 @@
       <c r="D11" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="330" x14ac:dyDescent="0.3">
+      <c r="H11" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="211.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>61</v>
       </c>
@@ -1158,78 +1458,140 @@
         <v>65</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:8" ht="237.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="264" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>78</v>
+      <c r="H14" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="277.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:8" ht="290.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="B17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="184.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:XFD24">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="Data processing">
+      <formula>NOT(ISERROR(SEARCH("Data processing",A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="security">
+      <formula>NOT(ISERROR(SEARCH("security",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Acquisition">
+      <formula>NOT(ISERROR(SEARCH("Acquisition",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="vulnerability">
+      <formula>NOT(ISERROR(SEARCH("vulnerability",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="communication">
+      <formula>NOT(ISERROR(SEARCH("communication",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/LITERATURE REVIEW/Literature Matrix UU 2022 (Feb update).xlsx
+++ b/LITERATURE REVIEW/Literature Matrix UU 2022 (Feb update).xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agrippina Mwangi\Documents\GitHub\Renewable_Energy_Integration\LITERATURE REVIEW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/a_w_mwangi_uu_nl/Documents/Documents/GitHub/Renewable_Energy_Integration/LITERATURE REVIEW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06087ED-E0F2-4FF2-BC24-2FAC29AE827F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{F06087ED-E0F2-4FF2-BC24-2FAC29AE827F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9E0BFA4-BE2B-4998-AF41-16CA8F8F09E1}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8964" xr2:uid="{497C0ADB-D672-4D47-81E2-3B9010C22FDB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{497C0ADB-D672-4D47-81E2-3B9010C22FDB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Month 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Jan-March 2022" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,9 +44,12 @@
     <author>tc={E17F176A-702B-47B9-8FD3-D2B8AFF9093B}</author>
     <author>tc={DB9FC807-7BEC-48C9-9130-F6E2E3C7261B}</author>
     <author>tc={50ADC00C-EE83-4127-9B3D-4B6779692EB1}</author>
+    <author>tc={B5561E6F-D307-4DF5-AAF7-C11B6A0E92B0}</author>
+    <author>tc={3AE146B3-2DCB-49B2-B613-298B324B06BC}</author>
+    <author>tc={774E44E6-C1F8-49B2-AA62-DA9BF4194493}</author>
   </authors>
   <commentList>
-    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{A36B3AE3-E0BF-465A-B8A7-3497E87534C9}">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{A36B3AE3-E0BF-465A-B8A7-3497E87534C9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -54,7 +57,7 @@
     The use of multifunction microprocessor based relays that can logically develop a trip bus from protective elements rather than having to wire individual elements to create the same trip bus</t>
       </text>
     </comment>
-    <comment ref="D14" authorId="1" shapeId="0" xr:uid="{DD8071E5-072B-497B-92DF-1A1D851A8FB6}">
+    <comment ref="E14" authorId="1" shapeId="0" xr:uid="{DD8071E5-072B-497B-92DF-1A1D851A8FB6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -63,7 +66,7 @@
 * A medium voltage switchgear where relay pushbuttons, internal lockouts, and SCADA communications are used to simplify the trip and close circuits, a breaker where IED to SCADA communications, a control IED, and IED pushbuttons are used to optimize the design, a transformer alarm circuit where a control IED is used as an alarm aggregator, and a process bus solution used to eliminate copper process wiring between the IEDs and primary substation equipment.</t>
       </text>
     </comment>
-    <comment ref="E14" authorId="2" shapeId="0" xr:uid="{2F71FB45-BBC3-40D3-9BE9-E73A6147F135}">
+    <comment ref="F14" authorId="2" shapeId="0" xr:uid="{2F71FB45-BBC3-40D3-9BE9-E73A6147F135}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -77,7 +80,7 @@
     The use of IEC 61850 GOOSE messaging and internal relay logic to replace control logic performed with copper wiring and auxilliary devices.</t>
       </text>
     </comment>
-    <comment ref="D15" authorId="3" shapeId="0" xr:uid="{00D66F1E-95F0-4AF9-8536-8511DC829F55}">
+    <comment ref="E15" authorId="3" shapeId="0" xr:uid="{00D66F1E-95F0-4AF9-8536-8511DC829F55}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -94,7 +97,7 @@
     The temporal resolution of the measuring loop has an impact on the precision of the state estimation process.</t>
       </text>
     </comment>
-    <comment ref="E15" authorId="4" shapeId="0" xr:uid="{67D84784-9BEB-438B-B46C-F82B40101D0E}">
+    <comment ref="F15" authorId="4" shapeId="0" xr:uid="{67D84784-9BEB-438B-B46C-F82B40101D0E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -118,7 +121,7 @@
 Used to inform the electricl simulator about changes in the network state. Eg. A user publishes a message in the real-time db in order to notify a change, the message must refer to a valid CIM identifier for the given object, as described in the network description used to configure the simulation.</t>
       </text>
     </comment>
-    <comment ref="F15" authorId="5" shapeId="0" xr:uid="{E17F176A-702B-47B9-8FD3-D2B8AFF9093B}">
+    <comment ref="G15" authorId="5" shapeId="0" xr:uid="{E17F176A-702B-47B9-8FD3-D2B8AFF9093B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -127,7 +130,7 @@
 IED -&gt; logical device-&gt; logical node -&gt; data object -&gt; Data attribute(leaf)</t>
       </text>
     </comment>
-    <comment ref="E17" authorId="6" shapeId="0" xr:uid="{DB9FC807-7BEC-48C9-9130-F6E2E3C7261B}">
+    <comment ref="F17" authorId="6" shapeId="0" xr:uid="{DB9FC807-7BEC-48C9-9130-F6E2E3C7261B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -139,7 +142,7 @@
     Deploy edge service equipment close to user requests. Edge service equipment and the data center constitute a two-iter task resource allocation structure to support application service requests.</t>
       </text>
     </comment>
-    <comment ref="F17" authorId="7" shapeId="0" xr:uid="{50ADC00C-EE83-4127-9B3D-4B6779692EB1}">
+    <comment ref="G17" authorId="7" shapeId="0" xr:uid="{50ADC00C-EE83-4127-9B3D-4B6779692EB1}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -149,12 +152,39 @@
     The intelligent monitoring equipment is only responsible for completing the task of data transmission, and the edge computing network</t>
       </text>
     </comment>
+    <comment ref="E20" authorId="8" shapeId="0" xr:uid="{B5561E6F-D307-4DF5-AAF7-C11B6A0E92B0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    1. Illegal state detection plays an important role and is corrected by the EDAC mechanism
+2. Remapping logic for error detection
+3. Hardware implementation</t>
+      </text>
+    </comment>
+    <comment ref="F20" authorId="9" shapeId="0" xr:uid="{3AE146B3-2DCB-49B2-B613-298B324B06BC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    check bit correction - done using the hamming distance or minimum distance of the extended hamming code (dm=4)
+Single error correction and double error detection (SEC-DED) code</t>
+      </text>
+    </comment>
+    <comment ref="A23" authorId="10" shapeId="0" xr:uid="{774E44E6-C1F8-49B2-AA62-DA9BF4194493}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    PhD dissertation</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="133">
   <si>
     <t>Title/Author</t>
   </si>
@@ -574,6 +604,129 @@
     <t xml:space="preserve">Use Raspberry Pi along with Elite 440-443 Modbus based smart meters to acquire the data of several electrical parameters in a micro-grid system for real-time monitoring. 
 The Raspberry Pi reads the digital data from the smart meters through the mModbus TCP/IP communication protocol and displays the data on a screen
 Alternative DA systems are embedded systems based on Linux and data loggers. </t>
+  </si>
+  <si>
+    <t>Cheng-Wen Wu
+Bing Yang Lin
+Hsin Wei Hung
+Shu Mei Tseng
+Chi Chen</t>
+  </si>
+  <si>
+    <t>Symbiotic system models for efficient IoT system design and test</t>
+  </si>
+  <si>
+    <t>The main obstacles for IoT are cost and energy consumption of the devices and systems.
+There is need to find a sustainable clean and cheap energy to meet this huge demand with IoT deployment. 
+1. Fast and low cost system design and manufacturing
+2. Energy consumption containment
+3. Environmental sustainability</t>
+  </si>
+  <si>
+    <t>Using the Symbiotic system model to design the mutual dependency of twin systems.
+Using Finite state machine (FSM) model that defines the symbiotic machine and the symbiotic device.
+The symbiotic subsystem explores efficient architectures to minimize energy consumption throughout the specified service time of the SS. 
+To explore efficient architectures to minimize energy consumption throughout the specified service time of the SS.
+The Quorum sensing fulfills the simple and effective monitoring of the entire system or a neighborhood (adopted from Biology)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This work explores how the system reliability of system connected in series or parallel or cascading format in the IoT network can be determined experimentally and equally how the fault is reduced by peer repair methods. </t>
+  </si>
+  <si>
+    <t>System reliability and resilience</t>
+  </si>
+  <si>
+    <t>Su-Fu Kuo
+Cheng Wen Wu</t>
+  </si>
+  <si>
+    <t>Symbiotic controller Design using a memory based FSM model</t>
+  </si>
+  <si>
+    <t>The main obstacles in promoting IoT applications are cost and energy consumption constraints of the devices and systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experimental results show that FSM models show that the reliability of SS is much higher than that of the original system. 
+The reliability of the original system drops to 29% after the same amount of operation time (without repair). </t>
+  </si>
+  <si>
+    <t>Proposes to develop symbiotic controllers that achieve higher reliability thus longer lifetime and lower cost. 
+Uses an experimental small traffic light controller .
+Use memory model for symbiotic controller design, since memory can be used as a lookup table that contains the truth table of the digital design. 
+The error detection and correction (EDAC) memory model mechanism can be applied to memory for reliability improvement. 
+The memory based technique: the output states correspond to a word in the memory, and the state transitions correspond to a sequence of memory accesses</t>
+  </si>
+  <si>
+    <t>When a system encounters hard faults, the reliability is improved by 1.75 times while when there are only incidences of soft errors, there is a resulting reliability improvement of about 8.4 times. 
+In a highly reliable system, the system will always remain in states that are all clearly specified and safe. The system will not enter unspecified states that can result in hazardous system failure.  We denote a state that is specified as a legal state and a stae that is unspecified as an illegal state.
+Hardware overhead decreases as we apply the approach to larger controllers (those with more variables)
+It is important to protect the system from illegal states which can be harzadous due to incorrect output control signals.</t>
+  </si>
+  <si>
+    <t>Modris Greitans
+Uldis Grunde
+Andris Jakovics
+Stanislavs Gendelis</t>
+  </si>
+  <si>
+    <t>Web based real time data acquisition system as tool for energy efficiency monitoring</t>
+  </si>
+  <si>
+    <t>collecting ambient condition data for an energy consumption monitoring test stand and how to log the data in a well developed IoT architecture for the energy system</t>
+  </si>
+  <si>
+    <t>use 40 sensors to collect both analog and digital ambient parameters. These sensors' data is processed by the interface module and later logged using a data logger. 
+The small scale implementation deploys a network communication component that is connected to the interface module via ethernet</t>
+  </si>
+  <si>
+    <t>Data is logged in the set intervals via serial connection communication protocols such as ModBus and IP. 
+The data logging is evaluated to determine any missing forms of data for performance evaluation</t>
+  </si>
+  <si>
+    <t>Data acquisition system</t>
+  </si>
+  <si>
+    <t>Does not discuss the application of work. 
+Provides a small scale overview of the energy system.
+Does not discuss the web-based interface for human information consumption</t>
+  </si>
+  <si>
+    <t>Research and development of an online electric energy data acquisition and monitoring system</t>
+  </si>
+  <si>
+    <t>Yuezhong Li
+Lingyuan Zeng
+Rui Chen
+Hualing Wu</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Mikel Armendariz</t>
+  </si>
+  <si>
+    <t>Cost-effective communication and control architectures for active low voltage grids</t>
+  </si>
+  <si>
+    <t>The communication and control architectures for enabling ALV distribution grids will not reach the comprehensive monitoring and control capabilities and coverage that is available at the transmission grid level.
+To propose a cost-effective and reliable communication and control architecture for ALV grids</t>
+  </si>
+  <si>
+    <t>1. Optimal meter placement in active LV networks
+2. Optimal communication architectures in LV metering infrastructures
+3. Integration of microgrid structure into the MV/LV grid by MPC-based controllability enhancement
+4. Optimal MPC-based controller placement in MV/LV grids
+5. Multi-agent approach for FLISR improvement in LV/MV grids
+6. Reliability analysis of MV/LV grid communications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The methods design optimal AMI communication architectures by clustering the energy meters that share similar characteristics and it connects each cluster to the AMI head-end through a communication architecture formed by wireless and power line communication technologies. 
+The Probabilistic relational models to indicate the probabilistic dependencies between the components that form the communication system using Monte Carlo methods. 
+The method is used to perform reliability predictions of simulated communication systems for ALV grids and therefore used to evaluate the reliability of the communication architectures. </t>
+  </si>
+  <si>
+    <t>Data acquisition and system reliability</t>
   </si>
 </sst>
 </file>
@@ -640,7 +793,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -679,102 +837,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -804,6 +869,7 @@
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Mwangi, A.W. (Agrippina Wanjiru)" id="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" userId="Mwangi, A.W. (Agrippina Wanjiru)" providerId="None"/>
+  <person displayName="Mwangi, A.W. (Agrippina Wanjiru)" id="{21F01616-D324-4CE7-8D31-307007296D35}" userId="S::a.w.mwangi@uu.nl::46517c3c-63dd-4f94-8fd6-d3c21a943425" providerId="AD"/>
 </personList>
 </file>
 
@@ -1104,109 +1170,122 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C14" dT="2022-02-10T04:08:42.80" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{A36B3AE3-E0BF-465A-B8A7-3497E87534C9}">
+  <threadedComment ref="D14" dT="2022-02-10T04:08:42.80" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{A36B3AE3-E0BF-465A-B8A7-3497E87534C9}">
     <text>The use of multifunction microprocessor based relays that can logically develop a trip bus from protective elements rather than having to wire individual elements to create the same trip bus</text>
   </threadedComment>
-  <threadedComment ref="D14" dT="2022-02-10T04:32:36.74" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{DD8071E5-072B-497B-92DF-1A1D851A8FB6}">
+  <threadedComment ref="E14" dT="2022-02-10T04:32:36.74" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{DD8071E5-072B-497B-92DF-1A1D851A8FB6}">
     <text>5 case studies:
 * A medium voltage switchgear where relay pushbuttons, internal lockouts, and SCADA communications are used to simplify the trip and close circuits, a breaker where IED to SCADA communications, a control IED, and IED pushbuttons are used to optimize the design, a transformer alarm circuit where a control IED is used as an alarm aggregator, and a process bus solution used to eliminate copper process wiring between the IEDs and primary substation equipment.</text>
   </threadedComment>
-  <threadedComment ref="E14" dT="2022-02-10T04:25:15.19" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{2F71FB45-BBC3-40D3-9BE9-E73A6147F135}">
+  <threadedComment ref="F14" dT="2022-02-10T04:25:15.19" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{2F71FB45-BBC3-40D3-9BE9-E73A6147F135}">
     <text>Wiring diagrams are developed from the elementary diagrams</text>
   </threadedComment>
-  <threadedComment ref="E14" dT="2022-02-10T04:27:30.16" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{C759B84A-05F8-4654-BB75-43B6D2C97B7A}" parentId="{2F71FB45-BBC3-40D3-9BE9-E73A6147F135}">
+  <threadedComment ref="F14" dT="2022-02-10T04:27:30.16" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{C759B84A-05F8-4654-BB75-43B6D2C97B7A}" parentId="{2F71FB45-BBC3-40D3-9BE9-E73A6147F135}">
     <text>In the design-build process, the earlier an error is made and the longer it persists through the process, the more costly the consequences of and correction for the error.</text>
   </threadedComment>
-  <threadedComment ref="E14" dT="2022-02-10T04:42:14.87" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{F27EEC2B-E2B6-458D-B0F2-0284937900D2}" parentId="{2F71FB45-BBC3-40D3-9BE9-E73A6147F135}">
+  <threadedComment ref="F14" dT="2022-02-10T04:42:14.87" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{F27EEC2B-E2B6-458D-B0F2-0284937900D2}" parentId="{2F71FB45-BBC3-40D3-9BE9-E73A6147F135}">
     <text>A cost benefit is derived from routing less cable due to the obvious cost of the cable, but also because the cable raceway may be reduced in size.</text>
   </threadedComment>
-  <threadedComment ref="E14" dT="2022-02-10T04:44:48.13" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{E5700288-FDC5-41C3-88CE-8C01C8B01D82}" parentId="{2F71FB45-BBC3-40D3-9BE9-E73A6147F135}">
+  <threadedComment ref="F14" dT="2022-02-10T04:44:48.13" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{E5700288-FDC5-41C3-88CE-8C01C8B01D82}" parentId="{2F71FB45-BBC3-40D3-9BE9-E73A6147F135}">
     <text>The use of IEC 61850 GOOSE messaging and internal relay logic to replace control logic performed with copper wiring and auxilliary devices.</text>
   </threadedComment>
-  <threadedComment ref="D15" dT="2022-02-10T05:23:25.96" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{00D66F1E-95F0-4AF9-8536-8511DC829F55}">
+  <threadedComment ref="E15" dT="2022-02-10T05:23:25.96" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{00D66F1E-95F0-4AF9-8536-8511DC829F55}">
     <text>IEC 61850 GOOSE - Generic Object Oriented Substation Events protocol.
 DSO_DER communication is inherently client-server and would require the use of the MMS - Manufacturing Message Specification protocol.</text>
   </threadedComment>
-  <threadedComment ref="D15" dT="2022-02-10T05:24:07.93" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{E342A776-6D71-4FDB-8232-54CAC33F2787}" parentId="{00D66F1E-95F0-4AF9-8536-8511DC829F55}">
+  <threadedComment ref="E15" dT="2022-02-10T05:24:07.93" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{E342A776-6D71-4FDB-8232-54CAC33F2787}" parentId="{00D66F1E-95F0-4AF9-8536-8511DC829F55}">
     <text>In the most demanding scenario, full observability of the network is obtained by monitoring active and reactive power of all loads and generators connected and voltages at all the busbars.</text>
   </threadedComment>
-  <threadedComment ref="D15" dT="2022-02-10T05:26:15.82" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{624D4549-9D7F-46DC-8242-C253F328ABBB}" parentId="{00D66F1E-95F0-4AF9-8536-8511DC829F55}">
+  <threadedComment ref="E15" dT="2022-02-10T05:26:15.82" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{624D4549-9D7F-46DC-8242-C253F328ABBB}" parentId="{00D66F1E-95F0-4AF9-8536-8511DC829F55}">
     <text>Lesser demanding scenarios like the monitoring of generators only and the transits at the start of each feeder, make it possible to calculate the aggregated load value by difference.</text>
   </threadedComment>
-  <threadedComment ref="D15" dT="2022-02-10T05:27:50.74" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{7D7029E1-E824-4232-A9C4-078FBAD44B5E}" parentId="{00D66F1E-95F0-4AF9-8536-8511DC829F55}">
+  <threadedComment ref="E15" dT="2022-02-10T05:27:50.74" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{7D7029E1-E824-4232-A9C4-078FBAD44B5E}" parentId="{00D66F1E-95F0-4AF9-8536-8511DC829F55}">
     <text>Another scenario, monitor only some of the generators, and then apply a state estimation algorithm, possibly based also on additional information like meteorological data, in order to obtain a reconstruction of the full network's status.</text>
   </threadedComment>
-  <threadedComment ref="D15" dT="2022-02-10T05:28:16.65" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{5E6E552A-DD95-4939-BB4B-11DE755A0D01}" parentId="{00D66F1E-95F0-4AF9-8536-8511DC829F55}">
+  <threadedComment ref="E15" dT="2022-02-10T05:28:16.65" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{5E6E552A-DD95-4939-BB4B-11DE755A0D01}" parentId="{00D66F1E-95F0-4AF9-8536-8511DC829F55}">
     <text>The temporal resolution of the measuring loop has an impact on the precision of the state estimation process.</text>
   </threadedComment>
-  <threadedComment ref="E15" dT="2022-02-10T05:38:56.75" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{67D84784-9BEB-438B-B46C-F82B40101D0E}">
+  <threadedComment ref="F15" dT="2022-02-10T05:38:56.75" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{67D84784-9BEB-438B-B46C-F82B40101D0E}">
     <text>The use of a real time database component to have an effective and yet simple way of connecting various simulation components by preserving the common CIM reference to data objects but without adding unnecessary complication to the interface</text>
   </threadedComment>
-  <threadedComment ref="E15" dT="2022-02-10T05:42:17.44" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{68EFF793-C4DF-43B4-AF8B-1521BC1C92D2}" parentId="{67D84784-9BEB-438B-B46C-F82B40101D0E}">
+  <threadedComment ref="F15" dT="2022-02-10T05:42:17.44" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{68EFF793-C4DF-43B4-AF8B-1521BC1C92D2}" parentId="{67D84784-9BEB-438B-B46C-F82B40101D0E}">
     <text>Key value stores are a particular subcategory of noSQL databases which have attracted a lot of interest in recent times especially in relation to cloud-based applications</text>
   </threadedComment>
-  <threadedComment ref="E15" dT="2022-02-10T05:45:32.26" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{47722453-6ED4-4CF5-9322-4B9D57BC8676}" parentId="{67D84784-9BEB-438B-B46C-F82B40101D0E}">
+  <threadedComment ref="F15" dT="2022-02-10T05:45:32.26" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{47722453-6ED4-4CF5-9322-4B9D57BC8676}" parentId="{67D84784-9BEB-438B-B46C-F82B40101D0E}">
     <text>The 'keys' and 'values' are usually just strings with no inherent structure, there are no datatypes to which a value can be bound. Examples of such databases are:
 * Redis
 * Memcached
 * Apache Cassandra
 These tools are quite important as their extremely simple data model allows for very efficient, scalable, and fault-tolerant implementations.</text>
   </threadedComment>
-  <threadedComment ref="E15" dT="2022-02-10T05:52:09.26" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{E5D11BF9-7690-448E-8547-91609467D10C}" parentId="{67D84784-9BEB-438B-B46C-F82B40101D0E}">
+  <threadedComment ref="F15" dT="2022-02-10T05:52:09.26" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{E5D11BF9-7690-448E-8547-91609467D10C}" parentId="{67D84784-9BEB-438B-B46C-F82B40101D0E}">
     <text>IEC 61850 data model is based on a tree-like data representation making the plain key-value structure too simplistic. 
 The tree-like structure of an IEC 61850 data model allows for this implementation, which applies to all the upper-level data structures, like logical nodes or logical devices.</text>
   </threadedComment>
-  <threadedComment ref="E15" dT="2022-02-10T05:52:45.95" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{0BE8D19C-1A39-44C4-8726-5D46FCD9FF27}" parentId="{67D84784-9BEB-438B-B46C-F82B40101D0E}">
+  <threadedComment ref="F15" dT="2022-02-10T05:52:45.95" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{0BE8D19C-1A39-44C4-8726-5D46FCD9FF27}" parentId="{67D84784-9BEB-438B-B46C-F82B40101D0E}">
     <text>Storage centric setup of the simulation framework is the fact that a publish-subscribe mechanism is useful for communication between the various database clients</text>
   </threadedComment>
-  <threadedComment ref="E15" dT="2022-02-10T05:55:07.79" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{3E4EC718-7E6D-440D-90AC-2EF8A75936B7}" parentId="{67D84784-9BEB-438B-B46C-F82B40101D0E}">
+  <threadedComment ref="F15" dT="2022-02-10T05:55:07.79" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{3E4EC718-7E6D-440D-90AC-2EF8A75936B7}" parentId="{67D84784-9BEB-438B-B46C-F82B40101D0E}">
     <text>Reporting scenario:
 Used to inform the electricl simulator about changes in the network state. Eg. A user publishes a message in the real-time db in order to notify a change, the message must refer to a valid CIM identifier for the given object, as described in the network description used to configure the simulation.</text>
   </threadedComment>
-  <threadedComment ref="F15" dT="2022-02-10T06:04:18.15" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{E17F176A-702B-47B9-8FD3-D2B8AFF9093B}">
+  <threadedComment ref="G15" dT="2022-02-10T06:04:18.15" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{E17F176A-702B-47B9-8FD3-D2B8AFF9093B}">
     <text>IEC 61859 data model:
 IED -&gt; logical device-&gt; logical node -&gt; data object -&gt; Data attribute(leaf)</text>
   </threadedComment>
-  <threadedComment ref="E17" dT="2022-02-15T11:03:21.22" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{DB9FC807-7BEC-48C9-9130-F6E2E3C7261B}">
+  <threadedComment ref="F17" dT="2022-02-15T11:03:21.22" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{DB9FC807-7BEC-48C9-9130-F6E2E3C7261B}">
     <text>Edge computing is a service network</text>
   </threadedComment>
-  <threadedComment ref="E17" dT="2022-02-15T11:03:56.39" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{FD77718A-6D56-4725-A5E1-DA9D289A6986}" parentId="{DB9FC807-7BEC-48C9-9130-F6E2E3C7261B}">
+  <threadedComment ref="F17" dT="2022-02-15T11:03:56.39" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{FD77718A-6D56-4725-A5E1-DA9D289A6986}" parentId="{DB9FC807-7BEC-48C9-9130-F6E2E3C7261B}">
     <text>Edge computing provides resource-intensive network applications with powerful computing capabilities and low network service delays.</text>
   </threadedComment>
-  <threadedComment ref="E17" dT="2022-02-15T11:04:48.68" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{9387F9AF-F976-4950-B97A-8C9E1E97B8FC}" parentId="{DB9FC807-7BEC-48C9-9130-F6E2E3C7261B}">
+  <threadedComment ref="F17" dT="2022-02-15T11:04:48.68" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{9387F9AF-F976-4950-B97A-8C9E1E97B8FC}" parentId="{DB9FC807-7BEC-48C9-9130-F6E2E3C7261B}">
     <text>Deploy edge service equipment close to user requests. Edge service equipment and the data center constitute a two-iter task resource allocation structure to support application service requests.</text>
   </threadedComment>
-  <threadedComment ref="F17" dT="2022-02-15T11:06:56.29" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{50ADC00C-EE83-4127-9B3D-4B6779692EB1}">
+  <threadedComment ref="G17" dT="2022-02-15T11:06:56.29" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{50ADC00C-EE83-4127-9B3D-4B6779692EB1}">
     <text>Edge services are distributed and deployed in different geographically diverse edge network areas, with lower latency than data centers. It can be seen as a cloudlet closer to the user area.</text>
   </threadedComment>
-  <threadedComment ref="F17" dT="2022-02-15T11:08:54.71" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{E61E01FB-3979-4066-800E-6ACBD69B0FDB}" parentId="{50ADC00C-EE83-4127-9B3D-4B6779692EB1}">
+  <threadedComment ref="G17" dT="2022-02-15T11:08:54.71" personId="{3139046B-82FB-4DAE-A31E-D0C2EA4E5010}" id="{E61E01FB-3979-4066-800E-6ACBD69B0FDB}" parentId="{50ADC00C-EE83-4127-9B3D-4B6779692EB1}">
     <text>The intelligent monitoring equipment is only responsible for completing the task of data transmission, and the edge computing network</text>
+  </threadedComment>
+  <threadedComment ref="E20" dT="2022-03-02T09:01:52.17" personId="{21F01616-D324-4CE7-8D31-307007296D35}" id="{B5561E6F-D307-4DF5-AAF7-C11B6A0E92B0}">
+    <text>1. Illegal state detection plays an important role and is corrected by the EDAC mechanism
+2. Remapping logic for error detection
+3. Hardware implementation</text>
+  </threadedComment>
+  <threadedComment ref="F20" dT="2022-03-02T08:59:00.28" personId="{21F01616-D324-4CE7-8D31-307007296D35}" id="{3AE146B3-2DCB-49B2-B613-298B324B06BC}">
+    <text>check bit correction - done using the hamming distance or minimum distance of the extended hamming code (dm=4)
+Single error correction and double error detection (SEC-DED) code</text>
+  </threadedComment>
+  <threadedComment ref="A23" dT="2022-03-02T12:18:08.51" personId="{21F01616-D324-4CE7-8D31-307007296D35}" id="{774E44E6-C1F8-49B2-AA62-DA9BF4194493}">
+    <text>PhD dissertation</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C6CAC5-4A2C-4BDD-A220-11C3DA4654B6}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" style="1"/>
-    <col min="3" max="3" width="27.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.77734375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="22.44140625" style="1"/>
+    <col min="2" max="2" width="29" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="44.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.77734375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="22.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1214,317 +1293,320 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="134.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="132" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="224.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="211.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="237.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="198" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="277.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="277.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>84</v>
       </c>
@@ -1532,64 +1614,172 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="290.39999999999998" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="277.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="184.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="132" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>104</v>
       </c>
     </row>
+    <row r="19" spans="1:9" ht="222.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="224.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="184.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:XFD24">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="Data processing">
+  <conditionalFormatting sqref="A2:XFD21 A23:XFD24 B22:XFD22">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Data processing">
       <formula>NOT(ISERROR(SEARCH("Data processing",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="security">
+  <conditionalFormatting sqref="A1:XFD21 A23:XFD1048576 B22:XFD22">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="cost and energy consumption">
+      <formula>NOT(ISERROR(SEARCH("cost and energy consumption",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="communication">
+      <formula>NOT(ISERROR(SEARCH("communication",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="vulnerability">
+      <formula>NOT(ISERROR(SEARCH("vulnerability",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Acquisition">
+      <formula>NOT(ISERROR(SEARCH("Acquisition",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="security">
       <formula>NOT(ISERROR(SEARCH("security",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Acquisition">
-      <formula>NOT(ISERROR(SEARCH("Acquisition",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="vulnerability">
-      <formula>NOT(ISERROR(SEARCH("vulnerability",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="communication">
-      <formula>NOT(ISERROR(SEARCH("communication",A1)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="cost and energy consumption">
+      <formula>NOT(ISERROR(SEARCH("cost and energy consumption",D20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LITERATURE REVIEW/Literature Matrix UU 2022 (Feb update).xlsx
+++ b/LITERATURE REVIEW/Literature Matrix UU 2022 (Feb update).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/a_w_mwangi_uu_nl/Documents/Documents/GitHub/Renewable_Energy_Integration/LITERATURE REVIEW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{F06087ED-E0F2-4FF2-BC24-2FAC29AE827F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9E0BFA4-BE2B-4998-AF41-16CA8F8F09E1}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{F06087ED-E0F2-4FF2-BC24-2FAC29AE827F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAE476A0-9965-4597-B790-9CFA2EA9124A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{497C0ADB-D672-4D47-81E2-3B9010C22FDB}"/>
+    <workbookView xWindow="11520" yWindow="768" windowWidth="11520" windowHeight="8964" xr2:uid="{497C0ADB-D672-4D47-81E2-3B9010C22FDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan-March 2022" sheetId="1" r:id="rId1"/>
@@ -47,6 +47,9 @@
     <author>tc={B5561E6F-D307-4DF5-AAF7-C11B6A0E92B0}</author>
     <author>tc={3AE146B3-2DCB-49B2-B613-298B324B06BC}</author>
     <author>tc={774E44E6-C1F8-49B2-AA62-DA9BF4194493}</author>
+    <author>tc={5FF5BDEB-76FF-4EB0-AA76-C57167C7026D}</author>
+    <author>tc={523F1821-12A1-45E4-947F-6063682AB992}</author>
+    <author>tc={56C057FB-3D1B-4960-9E52-C785247B0530}</author>
   </authors>
   <commentList>
     <comment ref="D14" authorId="0" shapeId="0" xr:uid="{A36B3AE3-E0BF-465A-B8A7-3497E87534C9}">
@@ -179,12 +182,65 @@
     PhD dissertation</t>
       </text>
     </comment>
+    <comment ref="D24" authorId="11" shapeId="0" xr:uid="{5FF5BDEB-76FF-4EB0-AA76-C57167C7026D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Smart grids would provide higher and widely distributed intelligence embedded in local electricity production, 2-way electricity and information flows, thus achieving reliable, flexible, efficient, economic, and secure power delivery and use.</t>
+      </text>
+    </comment>
+    <comment ref="F24" authorId="12" shapeId="0" xr:uid="{523F1821-12A1-45E4-947F-6063682AB992}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    SG home energy management with diverse wireless communications technology support:
+1. Price signals
+2. Internal energy
+3. Time
+4. Acknowledgements
+5. Messages
+Reply:
+    Two-way communication backbone which meets the communication requirements of each SG component is critical to the success of the SG:
+1. Latency
+2. Frequency Ranges
+3. Reliability
+4. Data rate
+5. Security
+6. Throughput
+Reply:
+    Mission critical applications such as wide area situational awareness systems or distribution automation systems
+Reply:
+    RF mesh and GPRS technology for rural AMI deployments need some coverage requirements due to the insufficient meter density.</t>
+      </text>
+    </comment>
+    <comment ref="G24" authorId="13" shapeId="0" xr:uid="{56C057FB-3D1B-4960-9E52-C785247B0530}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Substation automation
+1. Substations are key elements of the power grid network and all their devices are monitored, controlled, and protected by substation automation systems that collect the data and perform actions on it allowing robust routing of power from generators to loads through the complex network of transmission lines.
+Reply:
+    Smart grid standardization studies:
+1. IEEE
+2. ANSI
+3. NIST
+4. CIGRE
+5. ITU-T Smart grid focus group
+6. JISC
+7. EU M441 &amp; SM Coordination Group
+8. ISO
+9. SG standardization Mandate M/490 to ESOs to support European Smart Grid deployment</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="145">
   <si>
     <t>Title/Author</t>
   </si>
@@ -727,6 +783,66 @@
   </si>
   <si>
     <t>Data acquisition and system reliability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provided a good reference list for related works and a proper overview of the current trends in the smart grids for MV/LV domains. </t>
+  </si>
+  <si>
+    <t>Gungor Cagri V
+Dilan Sahin
+Kocak Taskin
+Ergut Salih
+Buccella Concettina
+Cecati Carlo
+Hancke Gerhard P</t>
+  </si>
+  <si>
+    <t>A survey on smart grid potential applications and communication requirements</t>
+  </si>
+  <si>
+    <t>Smart grid architecture issues are surveyed from the perspective of potential applications and the communications requirements needed for ensuring performance, flexible operations, reliability and economics.
+There are many issues on the ground and they are complicated by the aging infrastructure of the existing power grid whihc already cause problems to utilities and customers, being unreliable, with low power quality, hence too high and increasing cost and low customer satisfaction. 
+The increasing complexity of the power grid infrastructure, the huge number of geographically spread generators, and the side effects caused by the variable nature and high penetration of renewable energy systems (RES) make it very vulnerable, thus requiring sophisticated security mechanisms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Survey paper
+1. Smart grid approach is a complex two-way communication infrastructure, sustaining power flows between intelligent components and sophisticated computing and information technologies as well as business applications. 
+2. New approaches in grid management by applying demand side management and providing grid energy storage, needed for load balancing and for overcoming energy fluctuations caused by the intrinsic nature of RES, preventing widespread power grid cascading failures and enabling the integration of plug-in hybrid and EVs thus reducing emissions from the transportation industry and providing storage and matching the generation and load balance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. SG aims to maximize the energy efficiency of the whole power system while exploiting the use of renewable energy systems. 
+2. SG end to end architecture comprises three main layers: Application layer, power layer, and the communication layer. 
+3. The drawbacks of existing power grids: fragmented architectures, lack of adequate bandwidth for achieving two-way communication, lack of interoperability between system components, and the inability to handle the increasing amount of data from smart devices. 
+4. When public networks are used for SG applications, security and QoS concerns arise. This results in the need for a cost versus benefit analysis to evaluate the performance of public versus private networks for SG applications. Eventually, the choice of communication technology depends on its cost effectiveness and ability to provide suitable coverage. 
+</t>
+  </si>
+  <si>
+    <t>Smart grid applications &amp; communication survey</t>
+  </si>
+  <si>
+    <t>The work explores different applications for the smart grid such as the substation automation, overhead transmission line monitoring, HEM, AMI, wide area situational awareness systems, demand response management, outage management, distribution automation, distribution management, asset management, meter data management, distributed energy resources and storage, vehicle to grid (V2G) and electrical vehicles (EVs) charging. 
+All these application areas checked against the communication requirements such as:
+1. Security
+2. Bandwidth
+3. Reliability
+4. Latency</t>
+  </si>
+  <si>
+    <t>Rosa Morales Gonzalez
+Frits D Wattjes
+Madeleine Gibescu
+Wouter Vermeiden
+J G Slootweg
+Wil L Kling</t>
+  </si>
+  <si>
+    <t>Applied Internet of Things Architecture to unlock the value of smart microgrids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The stochastic nature of the DG-RES could negatively impact power availability and energy affordability in the energy transition.Renewable energy systems have generation patterns that do not follow the load, maintaining the power system in balance becomes more complex as penetration of DG-RES increases. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proposes an applied IoT architecture for smart microgrids that can create added value for end users and stakeholders, prepare the ground for standardization, and facilitate the large-scale implementation of smart grid solutions. </t>
   </si>
 </sst>
 </file>
@@ -769,7 +885,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -777,16 +893,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1260,16 +1394,58 @@
   <threadedComment ref="A23" dT="2022-03-02T12:18:08.51" personId="{21F01616-D324-4CE7-8D31-307007296D35}" id="{774E44E6-C1F8-49B2-AA62-DA9BF4194493}">
     <text>PhD dissertation</text>
   </threadedComment>
+  <threadedComment ref="D24" dT="2022-03-03T08:35:49.89" personId="{21F01616-D324-4CE7-8D31-307007296D35}" id="{5FF5BDEB-76FF-4EB0-AA76-C57167C7026D}">
+    <text>Smart grids would provide higher and widely distributed intelligence embedded in local electricity production, 2-way electricity and information flows, thus achieving reliable, flexible, efficient, economic, and secure power delivery and use.</text>
+  </threadedComment>
+  <threadedComment ref="F24" dT="2022-03-03T09:01:49.85" personId="{21F01616-D324-4CE7-8D31-307007296D35}" id="{523F1821-12A1-45E4-947F-6063682AB992}">
+    <text>SG home energy management with diverse wireless communications technology support:
+1. Price signals
+2. Internal energy
+3. Time
+4. Acknowledgements
+5. Messages</text>
+  </threadedComment>
+  <threadedComment ref="F24" dT="2022-03-03T09:05:31.87" personId="{21F01616-D324-4CE7-8D31-307007296D35}" id="{A9218DCA-6F0F-4D63-9457-CE1CA93E73C2}" parentId="{523F1821-12A1-45E4-947F-6063682AB992}">
+    <text>Two-way communication backbone which meets the communication requirements of each SG component is critical to the success of the SG:
+1. Latency
+2. Frequency Ranges
+3. Reliability
+4. Data rate
+5. Security
+6. Throughput</text>
+  </threadedComment>
+  <threadedComment ref="F24" dT="2022-03-03T09:06:09.35" personId="{21F01616-D324-4CE7-8D31-307007296D35}" id="{653A44AD-2451-46FD-AF65-7761AC69D967}" parentId="{523F1821-12A1-45E4-947F-6063682AB992}">
+    <text>Mission critical applications such as wide area situational awareness systems or distribution automation systems</text>
+  </threadedComment>
+  <threadedComment ref="F24" dT="2022-03-03T09:45:45.18" personId="{21F01616-D324-4CE7-8D31-307007296D35}" id="{46935650-0F8A-402D-ABD8-02D4F79C0A9A}" parentId="{523F1821-12A1-45E4-947F-6063682AB992}">
+    <text>RF mesh and GPRS technology for rural AMI deployments need some coverage requirements due to the insufficient meter density.</text>
+  </threadedComment>
+  <threadedComment ref="G24" dT="2022-03-03T09:11:36.64" personId="{21F01616-D324-4CE7-8D31-307007296D35}" id="{56C057FB-3D1B-4960-9E52-C785247B0530}">
+    <text>Substation automation
+1. Substations are key elements of the power grid network and all their devices are monitored, controlled, and protected by substation automation systems that collect the data and perform actions on it allowing robust routing of power from generators to loads through the complex network of transmission lines.</text>
+  </threadedComment>
+  <threadedComment ref="G24" dT="2022-03-03T10:17:46.47" personId="{21F01616-D324-4CE7-8D31-307007296D35}" id="{540D6E7B-6EEC-4E8A-8DFB-4080829C3F41}" parentId="{56C057FB-3D1B-4960-9E52-C785247B0530}">
+    <text>Smart grid standardization studies:
+1. IEEE
+2. ANSI
+3. NIST
+4. CIGRE
+5. ITU-T Smart grid focus group
+6. JISC
+7. EU M441 &amp; SM Coordination Group
+8. ISO
+9. SG standardization Mandate M/490 to ESOs to support European Smart Grid deployment</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C6CAC5-4A2C-4BDD-A220-11C3DA4654B6}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1315,444 +1491,945 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="118.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="118.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="118.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="134.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="118.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" ht="198" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="277.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="3" t="s">
         <v>83</v>
       </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>85</v>
       </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" ht="277.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="3" t="s">
         <v>104</v>
       </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="222.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="3" t="s">
         <v>110</v>
       </c>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" ht="224.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
         <v>110</v>
       </c>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="3" t="s">
         <v>122</v>
       </c>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="3">
         <v>2017</v>
       </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" ht="184.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="3">
         <v>2017</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="G23" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>132</v>
       </c>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" ht="277.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2013</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:XFD21 A23:XFD24 B22:XFD22">
